--- a/samuel-tw@outlook.com/sales.xlsx
+++ b/samuel-tw@outlook.com/sales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,6 +487,54 @@
         <v>2944.9</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2025-02-17</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1634.62</v>
+      </c>
+      <c r="C4" t="n">
+        <v>163.48</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1471.14</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2025-02-17</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1634.62</v>
+      </c>
+      <c r="C5" t="n">
+        <v>163.48</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1471.14</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2025-02-18</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1412.78</v>
+      </c>
+      <c r="C6" t="n">
+        <v>141.3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1271.48</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/samuel-tw@outlook.com/sales.xlsx
+++ b/samuel-tw@outlook.com/sales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -535,6 +535,54 @@
         <v>1271.48</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2025-02-19</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>1436.11</v>
+      </c>
+      <c r="C7" t="n">
+        <v>143.66</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1292.45</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2025-02-20</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1462.8</v>
+      </c>
+      <c r="C8" t="n">
+        <v>146.31</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1316.49</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2025-02-21</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1711.12</v>
+      </c>
+      <c r="C9" t="n">
+        <v>171.15</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1539.97</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/samuel-tw@outlook.com/sales.xlsx
+++ b/samuel-tw@outlook.com/sales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -583,6 +583,38 @@
         <v>1539.97</v>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2025-02-25</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>2316.68</v>
+      </c>
+      <c r="C10" t="n">
+        <v>231.72</v>
+      </c>
+      <c r="D10" t="n">
+        <v>2084.96</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2025-02-26</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>1559.31</v>
+      </c>
+      <c r="C11" t="n">
+        <v>155.97</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1403.34</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/samuel-tw@outlook.com/sales.xlsx
+++ b/samuel-tw@outlook.com/sales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -615,6 +615,22 @@
         <v>1403.34</v>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2025-02-27</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>2114.67</v>
+      </c>
+      <c r="C12" t="n">
+        <v>211.53</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1903.14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/samuel-tw@outlook.com/sales.xlsx
+++ b/samuel-tw@outlook.com/sales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -631,6 +631,86 @@
         <v>1903.14</v>
       </c>
     </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2025-02-28</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>1800.9</v>
+      </c>
+      <c r="C13" t="n">
+        <v>180.11</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1620.79</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2025-02-28</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>1800.9</v>
+      </c>
+      <c r="C14" t="n">
+        <v>180.11</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1620.79</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2025-02-28</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>1800.9</v>
+      </c>
+      <c r="C15" t="n">
+        <v>180.11</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1620.79</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2025-03-01</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>1848</v>
+      </c>
+      <c r="C16" t="n">
+        <v>184.84</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1663.16</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2025-03-02</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>1604.98</v>
+      </c>
+      <c r="C17" t="n">
+        <v>160.55</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1444.43</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/samuel-tw@outlook.com/sales.xlsx
+++ b/samuel-tw@outlook.com/sales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -711,6 +711,54 @@
         <v>1444.43</v>
       </c>
     </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2025-03-03</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>1781.94</v>
+      </c>
+      <c r="C18" t="n">
+        <v>178.24</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1603.7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2025-03-05</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>3482.22</v>
+      </c>
+      <c r="C19" t="n">
+        <v>348.29</v>
+      </c>
+      <c r="D19" t="n">
+        <v>3133.93</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2025-03-06</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>1563.8</v>
+      </c>
+      <c r="C20" t="n">
+        <v>156.42</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1407.38</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/samuel-tw@outlook.com/sales.xlsx
+++ b/samuel-tw@outlook.com/sales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -759,6 +759,22 @@
         <v>1407.38</v>
       </c>
     </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2025-03-09</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>3185.74</v>
+      </c>
+      <c r="C21" t="n">
+        <v>318.64</v>
+      </c>
+      <c r="D21" t="n">
+        <v>2867.1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/samuel-tw@outlook.com/sales.xlsx
+++ b/samuel-tw@outlook.com/sales.xlsx
@@ -8,6 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="銷售記錄" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="銷售總合" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -762,17 +764,265 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2025-03-09</t>
+          <t>2025-03-12</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3185.74</v>
+        <v>4024.81</v>
       </c>
       <c r="C21" t="n">
-        <v>318.64</v>
+        <v>402.56</v>
       </c>
       <c r="D21" t="n">
-        <v>2867.1</v>
+        <v>3622.25</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2025-03-12</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>4024.81</v>
+      </c>
+      <c r="C22" t="n">
+        <v>402.56</v>
+      </c>
+      <c r="D22" t="n">
+        <v>3622.25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>檔案名</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>revenue</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>goshop_orders_20250214.xlsx</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>3563.31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>goshop_orders_20250217.xlsx</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1471.14</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>goshop_orders_20250218_samuel-tw@outlook.com.xlsx</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1271.48</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>goshop_orders_20250219_samuel-tw@outlook.com.xlsx</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1292.45</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>goshop_orders_20250220_samuel-tw@outlook.com.xlsx</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1316.49</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>goshop_orders_20250221_samuel-tw@outlook.com.xlsx</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>1539.97</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>goshop_orders_20250223_samuel-tw@outlook.com.xlsx</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1797.42</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>goshop_orders_20250225_samuel-tw@outlook.com.xlsx</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>2084.96</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>goshop_orders_20250226_samuel-tw@outlook.com.xlsx</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1403.34</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>goshop_orders_20250227_samuel-tw@outlook.com.xlsx</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>1903.14</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>goshop_orders_20250228_samuel-tw@outlook.com.xlsx</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>1620.79</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>goshop_orders_20250301_samuel-tw@outlook.com.xlsx</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>1663.16</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>goshop_orders_20250302_samuel-tw@outlook.com.xlsx</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>1444.43</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>goshop_orders_20250303_samuel-tw@outlook.com.xlsx</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>1603.7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>goshop_orders_20250305_samuel-tw@outlook.com.xlsx</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>3133.93</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>goshop_orders_20250306_samuel-tw@outlook.com.xlsx</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>1407.38</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>goshop_orders_20250312_samuel-tw@outlook.com.xlsx</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>3622.25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>總收入</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>32139.34</v>
       </c>
     </row>
   </sheetData>
